--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N2">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q2">
-        <v>2.461409417672</v>
+        <v>1.898867257335</v>
       </c>
       <c r="R2">
-        <v>22.152684759048</v>
+        <v>17.089805316015</v>
       </c>
       <c r="S2">
-        <v>0.1194373999080301</v>
+        <v>0.05266034097437917</v>
       </c>
       <c r="T2">
-        <v>0.1194373999080301</v>
+        <v>0.05266034097437915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q3">
-        <v>8.801041544390223</v>
+        <v>5.068457304972</v>
       </c>
       <c r="R3">
-        <v>79.209373899512</v>
+        <v>45.616115744748</v>
       </c>
       <c r="S3">
-        <v>0.427061630217829</v>
+        <v>0.1405610049164276</v>
       </c>
       <c r="T3">
-        <v>0.4270616302178289</v>
+        <v>0.1405610049164276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N4">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q4">
-        <v>4.486226418699556</v>
+        <v>2.886963498738</v>
       </c>
       <c r="R4">
-        <v>40.37603776829601</v>
+        <v>25.982671488642</v>
       </c>
       <c r="S4">
-        <v>0.2176895948317976</v>
+        <v>0.08006272246618065</v>
       </c>
       <c r="T4">
-        <v>0.2176895948317975</v>
+        <v>0.08006272246618064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H5">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I5">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J5">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N5">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q5">
-        <v>2.882937831817777</v>
+        <v>3.322997657697</v>
       </c>
       <c r="R5">
-        <v>25.94644048636</v>
+        <v>29.906978919273</v>
       </c>
       <c r="S5">
-        <v>0.1398916394227811</v>
+        <v>0.09215504087262028</v>
       </c>
       <c r="T5">
-        <v>0.1398916394227811</v>
+        <v>0.09215504087262028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N6">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q6">
-        <v>0.261146880312</v>
+        <v>3.297257649323333</v>
       </c>
       <c r="R6">
-        <v>2.350321922808</v>
+        <v>29.67531884391</v>
       </c>
       <c r="S6">
-        <v>0.01267188796574077</v>
+        <v>0.09144120602586907</v>
       </c>
       <c r="T6">
-        <v>0.01267188796574076</v>
+        <v>0.09144120602586905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>115.631084</v>
       </c>
       <c r="O7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q7">
-        <v>0.9337595469946666</v>
+        <v>8.801041544390223</v>
       </c>
       <c r="R7">
-        <v>8.403835922952</v>
+        <v>79.209373899512</v>
       </c>
       <c r="S7">
-        <v>0.04530973662147764</v>
+        <v>0.2440749066934386</v>
       </c>
       <c r="T7">
-        <v>0.04530973662147764</v>
+        <v>0.2440749066934386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H8">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I8">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J8">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N8">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q8">
-        <v>0.4759728410906667</v>
+        <v>5.013021548905334</v>
       </c>
       <c r="R8">
-        <v>4.283755569816</v>
+        <v>45.117193940148</v>
       </c>
       <c r="S8">
-        <v>0.02309610020931622</v>
+        <v>0.139023632672335</v>
       </c>
       <c r="T8">
-        <v>0.02309610020931622</v>
+        <v>0.139023632672335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H9">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I9">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J9">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N9">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q9">
-        <v>0.3058695621733333</v>
+        <v>5.770166083595777</v>
       </c>
       <c r="R9">
-        <v>2.752826059559999</v>
+        <v>51.931494752362</v>
       </c>
       <c r="S9">
-        <v>0.01484201082302784</v>
+        <v>0.1600211453787496</v>
       </c>
       <c r="T9">
-        <v>0.01484201082302783</v>
+        <v>0.1600211453787496</v>
       </c>
     </row>
   </sheetData>
